--- a/biology/Zoologie/Euspondylus_guentheri/Euspondylus_guentheri.xlsx
+++ b/biology/Zoologie/Euspondylus_guentheri/Euspondylus_guentheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euspondylus guentheri est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euspondylus guentheri est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Équateur.
 Sa présence au Pérou est incertaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Günther[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Albert Günther.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O'Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).</t>
         </is>
